--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,133 +513,133 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.3902249316536697</v>
+        <v>1.3902249212387687</v>
       </c>
       <c r="C2">
-        <v>6.7120439013654476</v>
+        <v>6.7120438827236342</v>
       </c>
       <c r="D2">
-        <v>9.1834259886875031</v>
+        <v>9.1834259579180539</v>
       </c>
       <c r="E2">
-        <v>16.061530323260634</v>
+        <v>16.061530314463148</v>
       </c>
       <c r="F2">
-        <v>5.2559448276063421</v>
+        <v>5.2559448180742692</v>
       </c>
       <c r="G2">
-        <v>1.4761986558430564</v>
+        <v>1.4761986586924039</v>
       </c>
       <c r="H2">
-        <v>4.5940284067468227</v>
+        <v>4.594028389746434</v>
       </c>
       <c r="I2">
-        <v>7.9670561035270211</v>
+        <v>7.9670561104846769</v>
       </c>
       <c r="J2">
-        <v>11.253164975061509</v>
+        <v>11.253164947728663</v>
       </c>
       <c r="K2">
-        <v>3.3858794920428608</v>
+        <v>3.3858794980943898</v>
       </c>
       <c r="L2">
-        <v>2.8916662129179684</v>
+        <v>2.8916661984349616</v>
       </c>
       <c r="N2">
-        <v>9.1027714653079528</v>
+        <v>9.1027714634544878</v>
       </c>
       <c r="O2">
-        <v>6.9401288665528327</v>
+        <v>6.940128841075321</v>
       </c>
       <c r="P2">
-        <v>10.986251243803991</v>
+        <v>10.986251229370673</v>
       </c>
       <c r="Q2">
-        <v>4.1852734628442079E-2</v>
+        <v>4.1852701031267259E-2</v>
       </c>
       <c r="S2">
-        <v>18.398353307694236</v>
+        <v>18.398353154094337</v>
       </c>
       <c r="V2">
-        <v>4.85362914673604</v>
+        <v>4.8536291210027045</v>
       </c>
       <c r="W2">
-        <v>-7.1957666357040964</v>
+        <v>-7.1957666510325069</v>
       </c>
       <c r="X2">
-        <v>0.28228873385231168</v>
+        <v>0.28228871179189952</v>
       </c>
       <c r="AA2">
-        <v>12.4553226437299</v>
+        <v>12.455322610092296</v>
       </c>
       <c r="AB2">
-        <v>11.025148419794249</v>
+        <v>11.025148359959601</v>
       </c>
       <c r="AC2">
-        <v>-0.32593188553986607</v>
+        <v>-0.32593187914902444</v>
       </c>
       <c r="AD2">
-        <v>17.33744385510758</v>
+        <v>17.337443790468598</v>
       </c>
       <c r="AE2">
-        <v>4.8637128891447432</v>
+        <v>4.8637128878763534</v>
       </c>
       <c r="AF2">
-        <v>9.7112581454257878</v>
+        <v>9.711258138586814</v>
       </c>
       <c r="AG2">
-        <v>9.0885342705596059</v>
+        <v>9.0885342442114236</v>
       </c>
       <c r="AH2">
-        <v>12.070380936645101</v>
+        <v>12.070380892209513</v>
       </c>
       <c r="AI2">
-        <v>14.489026792126367</v>
+        <v>14.48902672312299</v>
       </c>
       <c r="AJ2">
-        <v>7.976867942706626</v>
+        <v>7.9768679399612878</v>
       </c>
       <c r="AK2">
-        <v>10.083522500877919</v>
+        <v>10.083522472686965</v>
       </c>
       <c r="AL2">
-        <v>-3.6147688150616943</v>
+        <v>-3.6147688428402347</v>
       </c>
       <c r="AM2">
-        <v>10.872399332869847</v>
+        <v>10.872399275861497</v>
       </c>
       <c r="AN2">
-        <v>10.527685765330958</v>
+        <v>10.527685730939275</v>
       </c>
       <c r="AO2">
-        <v>18.570586484134765</v>
+        <v>18.570586427331065</v>
       </c>
       <c r="AP2">
-        <v>13.987034329946724</v>
+        <v>13.987034306204649</v>
       </c>
       <c r="AQ2">
-        <v>-4.2238027820513508</v>
+        <v>-4.2238028298040078</v>
       </c>
       <c r="AR2">
-        <v>19.794730435584938</v>
+        <v>19.794730441151174</v>
       </c>
       <c r="AS2">
-        <v>16.384929908088353</v>
+        <v>16.3849298519565</v>
       </c>
       <c r="AU2">
-        <v>10.8062328232621</v>
+        <v>10.806232794159172</v>
       </c>
       <c r="AV2">
-        <v>2.5401376726154012</v>
+        <v>2.5401376085144349</v>
       </c>
       <c r="AW2">
-        <v>4.400862299955719</v>
+        <v>4.40086226255805</v>
       </c>
       <c r="AX2">
-        <v>13.539694165800455</v>
+        <v>13.539694138867475</v>
       </c>
       <c r="AY2">
-        <v>18.510492637096284</v>
+        <v>18.510492590170792</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -652,121 +647,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.0782938637187485</v>
+        <v>5.0782938329111502</v>
       </c>
       <c r="C3">
-        <v>4.3563560527409919</v>
+        <v>4.3563560166949671</v>
       </c>
       <c r="E3">
-        <v>12.965494382887485</v>
+        <v>12.965494367464302</v>
       </c>
       <c r="F3">
-        <v>4.3299990157514472</v>
+        <v>4.3299989973008337</v>
       </c>
       <c r="G3">
-        <v>10.272311958956578</v>
+        <v>10.272311939869027</v>
       </c>
       <c r="H3">
-        <v>-2.8022438976632316</v>
+        <v>-2.8022439068151641</v>
       </c>
       <c r="J3">
-        <v>13.901394155100533</v>
+        <v>13.901394100058297</v>
       </c>
       <c r="K3">
-        <v>21.926933803749996</v>
+        <v>21.926933786882692</v>
       </c>
       <c r="L3">
-        <v>12.878260702889825</v>
+        <v>12.878260661403523</v>
       </c>
       <c r="M3">
-        <v>-0.2197656295252699</v>
+        <v>-0.21990728026726458</v>
       </c>
       <c r="N3">
-        <v>7.5777447829995452</v>
+        <v>7.5777447545056162</v>
       </c>
       <c r="P3">
-        <v>11.948672156609533</v>
+        <v>11.94867210026176</v>
       </c>
       <c r="Q3">
-        <v>4.9919166946758295</v>
+        <v>4.991916667876545</v>
       </c>
       <c r="R3">
-        <v>0.53742887083472368</v>
+        <v>0.5374288134181171</v>
       </c>
       <c r="W3">
-        <v>0.50497377404875721</v>
+        <v>0.50497372681383723</v>
       </c>
       <c r="AA3">
-        <v>13.569256065404232</v>
+        <v>13.569256025006126</v>
       </c>
       <c r="AB3">
-        <v>11.376120328922291</v>
+        <v>11.376120291169734</v>
       </c>
       <c r="AC3">
-        <v>14.358032380348298</v>
+        <v>14.358032370376257</v>
       </c>
       <c r="AD3">
-        <v>17.520342605750834</v>
+        <v>17.520342581816941</v>
       </c>
       <c r="AE3">
-        <v>10.699838103045586</v>
+        <v>10.699838093752895</v>
       </c>
       <c r="AF3">
-        <v>9.9834483176186097</v>
+        <v>9.983448290883139</v>
       </c>
       <c r="AG3">
-        <v>4.5077453568831061</v>
+        <v>4.5077453219055741</v>
       </c>
       <c r="AH3">
-        <v>3.242451437237591</v>
+        <v>3.2424513915072168</v>
       </c>
       <c r="AI3">
-        <v>34.95903838729447</v>
+        <v>34.959038382305891</v>
       </c>
       <c r="AJ3">
-        <v>15.814992611121902</v>
+        <v>15.814992575380742</v>
       </c>
       <c r="AK3">
-        <v>11.425011209672846</v>
+        <v>11.425011182501834</v>
       </c>
       <c r="AL3">
-        <v>8.8098058253956921</v>
+        <v>8.8098057726343271</v>
       </c>
       <c r="AM3">
-        <v>9.682641935074713</v>
+        <v>9.6826418635996561</v>
       </c>
       <c r="AN3">
-        <v>-8.2431759320342124</v>
+        <v>-8.2431759590944793</v>
       </c>
       <c r="AO3">
-        <v>17.309070013499145</v>
+        <v>17.309069984896105</v>
       </c>
       <c r="AP3">
-        <v>3.2328161547627303</v>
+        <v>3.2328161223891172</v>
       </c>
       <c r="AQ3">
-        <v>9.5104055274541039</v>
+        <v>9.5104054939411213</v>
       </c>
       <c r="AS3">
-        <v>13.34078133103489</v>
+        <v>13.340781318599326</v>
       </c>
       <c r="AT3">
-        <v>10.95614442820569</v>
+        <v>10.956144389580416</v>
       </c>
       <c r="AU3">
-        <v>7.0321341926264154</v>
+        <v>7.0321341699216546</v>
       </c>
       <c r="AV3">
-        <v>2.6409313416015578</v>
+        <v>2.6409313116700375</v>
       </c>
       <c r="AW3">
-        <v>1.6724871093117599</v>
+        <v>1.6724870795126634</v>
       </c>
       <c r="AX3">
-        <v>8.4318726884024358</v>
+        <v>8.4318726531672468</v>
       </c>
       <c r="AY3">
-        <v>22.600014270770508</v>
+        <v>22.600014224509486</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,56 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>1.3902249212387687</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>6.7120438827236342</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>9.1834259579180539</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>16.061530314463148</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>5.2559448180742692</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.4761986586924039</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>4.594028389746434</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>7.9670561104846769</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>11.253164947728663</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>3.3858794980943898</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2.8916661984349616</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>9.1027714634544878</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>6.940128841075321</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>10.986251229370673</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>4.1852701031267259E-2</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>18.398353154094337</v>
+        <v>10.82763835478525</v>
       </c>
       <c r="V2">
         <v>4.8536291210027045</v>
@@ -570,55 +465,55 @@
         <v>0.28228871179189952</v>
       </c>
       <c r="AA2">
-        <v>12.455322610092296</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>11.025148359959601</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-0.32593187914902444</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>17.337443790468598</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>4.8637128878763534</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>9.711258138586814</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>9.0885342442114236</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>12.070380892209513</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>14.48902672312299</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>7.9768679399612878</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>10.083522472686965</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-3.6147688428402347</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>10.872399275861497</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>10.527685730939275</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>18.570586427331065</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>13.987034306204649</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-4.2238028298040078</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>19.794730441151174</v>
@@ -643,104 +538,110 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>5.0782938329111502</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4.3563560166949671</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>12.965494367464302</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4.3299989973008337</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>10.272311939869027</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-2.8022439068151641</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>13.901394100058297</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>21.926933786882692</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>12.878260661403523</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-0.21990728026726458</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>7.5777447545056162</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>11.94867210026176</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>4.991916667876545</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.5374288134181171</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0.50497372681383723</v>
       </c>
       <c r="AA3">
-        <v>13.569256025006126</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>11.376120291169734</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>14.358032370376257</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>17.520342581816941</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>10.699838093752895</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>9.983448290883139</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>4.5077453219055741</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>3.2424513915072168</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>34.959038382305891</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>15.814992575380742</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>11.425011182501834</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>8.8098057726343271</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>9.6826418635996561</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-8.2431759590944793</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>17.309069984896105</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>3.2328161223891172</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>9.5104054939411213</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>13.340781318599326</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1.3902249316536697</v>
-      </c>
-      <c r="C2">
-        <v>4.4673062246782962</v>
-      </c>
-      <c r="D2">
-        <v>9.1834259886875031</v>
-      </c>
       <c r="E2">
-        <v>16.061530323260634</v>
+        <v>-4.2238028298040078</v>
       </c>
       <c r="F2">
         <v>5.2559448276063421</v>
@@ -651,14 +637,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>5.0782938637187485</v>
-      </c>
       <c r="C3">
-        <v>4.3563560527409919</v>
+        <v>0.5374288134181171</v>
+      </c>
+      <c r="D3">
+        <v>-7.3463355315719454</v>
       </c>
       <c r="E3">
-        <v>12.965494382887485</v>
+        <v>9.8447801482831068</v>
       </c>
       <c r="F3">
         <v>4.3299990157514472</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.3902249316536697</v>
-      </c>
-      <c r="C2">
-        <v>4.4673062246782962</v>
+        <v>8.2258820116076379</v>
       </c>
       <c r="D2">
-        <v>9.1834259886875031</v>
-      </c>
-      <c r="E2">
-        <v>16.061530323260634</v>
+        <v>10.872399275861497</v>
       </c>
       <c r="F2">
         <v>5.2559448276063421</v>
@@ -643,13 +632,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.0782938637187485</v>
-      </c>
-      <c r="C3">
-        <v>4.3563560527409919</v>
+        <v>7.5777447545056162</v>
+      </c>
+      <c r="D3">
+        <v>9.6826418635996561</v>
       </c>
       <c r="E3">
-        <v>18.634277173775487</v>
+        <v>-7.3463355315719454</v>
       </c>
       <c r="F3">
         <v>4.3299990157514472</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,118 +513,124 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1.3902249212387687</v>
+      </c>
+      <c r="C2">
+        <v>4.4673062147386418</v>
+      </c>
+      <c r="D2">
+        <v>9.1834259579180539</v>
+      </c>
+      <c r="E2">
+        <v>16.061530314463148</v>
+      </c>
+      <c r="F2">
+        <v>5.2559448180742692</v>
+      </c>
+      <c r="G2">
+        <v>4.8785173365951238</v>
+      </c>
+      <c r="H2">
+        <v>4.594028389746434</v>
+      </c>
+      <c r="I2">
+        <v>11.656411371958839</v>
+      </c>
+      <c r="J2">
+        <v>11.253164947728663</v>
+      </c>
+      <c r="K2">
+        <v>3.3858794980943898</v>
+      </c>
+      <c r="L2">
+        <v>3.0974337856280698</v>
+      </c>
+      <c r="N2">
         <v>8.2258820116076379</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>12.340415374468762</v>
+      </c>
+      <c r="Q2">
+        <v>4.1852701031267259E-2</v>
+      </c>
+      <c r="V2">
+        <v>7.578430857817942</v>
+      </c>
+      <c r="W2">
+        <v>-7.1957666510325069</v>
+      </c>
+      <c r="X2">
+        <v>0.28228871179189952</v>
+      </c>
+      <c r="AA2">
+        <v>12.455322610092296</v>
+      </c>
+      <c r="AB2">
+        <v>11.025148359959601</v>
+      </c>
+      <c r="AC2">
+        <v>-0.32593187914902444</v>
+      </c>
+      <c r="AD2">
+        <v>17.337443790468598</v>
+      </c>
+      <c r="AE2">
+        <v>4.8637128878763534</v>
+      </c>
+      <c r="AF2">
+        <v>9.711258138586814</v>
+      </c>
+      <c r="AG2">
+        <v>9.0885342442114236</v>
+      </c>
+      <c r="AH2">
+        <v>12.070380892209513</v>
+      </c>
+      <c r="AI2">
+        <v>14.48902672312299</v>
+      </c>
+      <c r="AJ2">
+        <v>7.9768679399612878</v>
+      </c>
+      <c r="AK2">
+        <v>10.083522472686965</v>
+      </c>
+      <c r="AL2">
+        <v>-3.6147688428402347</v>
+      </c>
+      <c r="AM2">
         <v>10.872399275861497</v>
       </c>
-      <c r="F2">
-        <v>5.2559448276063421</v>
-      </c>
-      <c r="G2">
-        <v>4.8785173338324199</v>
-      </c>
-      <c r="H2">
-        <v>4.5940284067468227</v>
-      </c>
-      <c r="I2">
-        <v>11.656411358749551</v>
-      </c>
-      <c r="J2">
-        <v>11.253164975061509</v>
-      </c>
-      <c r="K2">
-        <v>3.3858794920428608</v>
-      </c>
-      <c r="L2">
-        <v>3.0974338073200656</v>
-      </c>
-      <c r="N2">
-        <v>8.2258820186223289</v>
-      </c>
-      <c r="P2">
-        <v>12.340415378303639</v>
-      </c>
-      <c r="Q2">
-        <v>4.1852734628442079E-2</v>
-      </c>
-      <c r="V2">
-        <v>7.5784308936268232</v>
-      </c>
-      <c r="W2">
-        <v>-7.1957666357040964</v>
-      </c>
-      <c r="X2">
-        <v>0.28228873385231168</v>
-      </c>
-      <c r="AA2">
-        <v>12.4553226437299</v>
-      </c>
-      <c r="AB2">
-        <v>11.025148419794249</v>
-      </c>
-      <c r="AC2">
-        <v>-0.32593188553986607</v>
-      </c>
-      <c r="AD2">
-        <v>17.33744385510758</v>
-      </c>
-      <c r="AE2">
-        <v>4.8637128891447432</v>
-      </c>
-      <c r="AF2">
-        <v>9.7112581454257878</v>
-      </c>
-      <c r="AG2">
-        <v>9.0885342705596059</v>
-      </c>
-      <c r="AH2">
-        <v>12.070380936645101</v>
-      </c>
-      <c r="AI2">
-        <v>14.489026792126367</v>
-      </c>
-      <c r="AJ2">
-        <v>7.976867942706626</v>
-      </c>
-      <c r="AK2">
-        <v>10.083522500877919</v>
-      </c>
-      <c r="AL2">
-        <v>-3.6147688150616943</v>
-      </c>
-      <c r="AM2">
-        <v>10.872399332869847</v>
-      </c>
       <c r="AO2">
-        <v>18.570586484134765</v>
+        <v>18.570586427331065</v>
       </c>
       <c r="AP2">
-        <v>16.098260988401506</v>
+        <v>16.098260971312925</v>
       </c>
       <c r="AQ2">
-        <v>-4.2238027820513508</v>
+        <v>-4.2238028298040078</v>
       </c>
       <c r="AR2">
-        <v>19.794730435584938</v>
+        <v>19.794730441151174</v>
       </c>
       <c r="AS2">
-        <v>16.384929908088353</v>
+        <v>16.3849298519565</v>
       </c>
       <c r="AU2">
-        <v>5.5040099888643539</v>
+        <v>5.5040099544621626</v>
       </c>
       <c r="AV2">
-        <v>2.5401376726154012</v>
+        <v>2.5401376085144349</v>
       </c>
       <c r="AW2">
-        <v>4.400862299955719</v>
+        <v>4.40086226255805</v>
       </c>
       <c r="AX2">
-        <v>13.539694165800455</v>
+        <v>13.539694138867475</v>
       </c>
       <c r="AY2">
-        <v>18.510492637096284</v>
+        <v>18.510492590170792</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -632,121 +638,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>5.0782938329111502</v>
+      </c>
+      <c r="C3">
+        <v>4.3563560166949671</v>
+      </c>
+      <c r="E3">
+        <v>18.634277177633123</v>
+      </c>
+      <c r="F3">
+        <v>4.3299989973008337</v>
+      </c>
+      <c r="G3">
+        <v>10.272311939869027</v>
+      </c>
+      <c r="H3">
+        <v>-2.8022439068151641</v>
+      </c>
+      <c r="J3">
+        <v>13.901394100058297</v>
+      </c>
+      <c r="K3">
+        <v>18.584952102326987</v>
+      </c>
+      <c r="L3">
+        <v>12.878260661403523</v>
+      </c>
+      <c r="M3">
+        <v>-3.7838053819827024</v>
+      </c>
+      <c r="N3">
         <v>7.5777447545056162</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>11.94867210026176</v>
+      </c>
+      <c r="Q3">
+        <v>4.991916667876545</v>
+      </c>
+      <c r="R3">
+        <v>0.5374288134181171</v>
+      </c>
+      <c r="W3">
+        <v>0.50497372681383723</v>
+      </c>
+      <c r="AA3">
+        <v>13.569256025006126</v>
+      </c>
+      <c r="AB3">
+        <v>11.376120291169734</v>
+      </c>
+      <c r="AC3">
+        <v>14.358032370376257</v>
+      </c>
+      <c r="AD3">
+        <v>17.520342581816941</v>
+      </c>
+      <c r="AE3">
+        <v>10.699838093752895</v>
+      </c>
+      <c r="AF3">
+        <v>9.983448290883139</v>
+      </c>
+      <c r="AG3">
+        <v>4.5077453219055741</v>
+      </c>
+      <c r="AH3">
+        <v>3.2424513915072168</v>
+      </c>
+      <c r="AI3">
+        <v>11.984385505296956</v>
+      </c>
+      <c r="AJ3">
+        <v>15.814992575380742</v>
+      </c>
+      <c r="AK3">
+        <v>11.425011182501834</v>
+      </c>
+      <c r="AL3">
+        <v>8.8098057726343271</v>
+      </c>
+      <c r="AM3">
         <v>9.6826418635996561</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-7.3463355315719454</v>
       </c>
-      <c r="F3">
-        <v>4.3299990157514472</v>
-      </c>
-      <c r="G3">
-        <v>10.272311958956578</v>
-      </c>
-      <c r="H3">
-        <v>-2.8022438976632316</v>
-      </c>
-      <c r="J3">
-        <v>13.901394155100533</v>
-      </c>
-      <c r="K3">
-        <v>18.584952121430327</v>
-      </c>
-      <c r="L3">
-        <v>12.878260702889825</v>
-      </c>
-      <c r="M3">
-        <v>-3.7838973043311128</v>
-      </c>
-      <c r="N3">
-        <v>7.5777447829995452</v>
-      </c>
-      <c r="P3">
-        <v>11.948672156609533</v>
-      </c>
-      <c r="Q3">
-        <v>4.9919166946758295</v>
-      </c>
-      <c r="R3">
-        <v>0.53742887083472368</v>
-      </c>
-      <c r="W3">
-        <v>0.50497377404875721</v>
-      </c>
-      <c r="AA3">
-        <v>13.569256065404232</v>
-      </c>
-      <c r="AB3">
-        <v>11.376120328922291</v>
-      </c>
-      <c r="AC3">
-        <v>14.358032380348298</v>
-      </c>
-      <c r="AD3">
-        <v>17.520342605750834</v>
-      </c>
-      <c r="AE3">
-        <v>10.699838103045586</v>
-      </c>
-      <c r="AF3">
-        <v>9.9834483176186097</v>
-      </c>
-      <c r="AG3">
-        <v>4.5077453568831061</v>
-      </c>
-      <c r="AH3">
-        <v>3.242451437237591</v>
-      </c>
-      <c r="AI3">
-        <v>11.984385563903544</v>
-      </c>
-      <c r="AJ3">
-        <v>15.814992611121902</v>
-      </c>
-      <c r="AK3">
-        <v>11.425011209672846</v>
-      </c>
-      <c r="AL3">
-        <v>8.8098058253956921</v>
-      </c>
-      <c r="AM3">
-        <v>9.682641935074713</v>
-      </c>
-      <c r="AN3">
-        <v>-7.3463355026988069</v>
-      </c>
       <c r="AO3">
-        <v>17.309070013499145</v>
+        <v>17.309069984896105</v>
       </c>
       <c r="AP3">
-        <v>3.2328161547627303</v>
+        <v>3.2328161223891172</v>
       </c>
       <c r="AQ3">
-        <v>9.8447801613925208</v>
+        <v>9.8447801482831068</v>
       </c>
       <c r="AS3">
-        <v>13.34078133103489</v>
+        <v>13.340781318599326</v>
       </c>
       <c r="AT3">
-        <v>10.95614442820569</v>
+        <v>10.956144389580416</v>
       </c>
       <c r="AU3">
-        <v>7.6794530483657297</v>
+        <v>7.6794530228553128</v>
       </c>
       <c r="AV3">
-        <v>2.6409313416015578</v>
+        <v>2.6409313116700375</v>
       </c>
       <c r="AW3">
-        <v>1.6724871093117599</v>
+        <v>1.6724870795126634</v>
       </c>
       <c r="AX3">
-        <v>8.4318726884024358</v>
+        <v>8.4318726531672468</v>
       </c>
       <c r="AY3">
-        <v>22.600014270770508</v>
+        <v>22.600014224509486</v>
       </c>
     </row>
   </sheetData>
